--- a/medicine/Psychotrope/Scotch_Whisky_Heritage_Centre/Scotch_Whisky_Heritage_Centre.xlsx
+++ b/medicine/Psychotrope/Scotch_Whisky_Heritage_Centre/Scotch_Whisky_Heritage_Centre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Scotch Whisky Heritage Centre, également appelé The Scotch Whisky Experience, est un musée consacré à l'histoire et à la fabrication du whisky, qui se situe sur le Royal Mile à Édimbourg en Écosse.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créé par dix-neuf fabricants de scotch whisky en juillet 1987[2], il a été inauguré en mai 1988 dans une ancienne école.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créé par dix-neuf fabricants de scotch whisky en juillet 1987, il a été inauguré en mai 1988 dans une ancienne école.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il comporte la plus importante collection de bouteilles de whisky au monde[3], composée de plus de 3 000 exemplaires, et propose — en plus de la visite — des séances de dégustation ainsi qu'un bar et un restaurant.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il comporte la plus importante collection de bouteilles de whisky au monde, composée de plus de 3 000 exemplaires, et propose — en plus de la visite — des séances de dégustation ainsi qu'un bar et un restaurant.
 </t>
         </is>
       </c>
